--- a/data/trans_camb/P25A_2_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_2_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +680,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +690,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -685,7 +763,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,32 +778,62 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,34</t>
+          <t>0,0; 3,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,49</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,19</t>
         </is>
       </c>
     </row>
@@ -763,22 +871,52 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -858,37 +1026,67 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,0</t>
+          <t>-3,3; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,0</t>
+          <t>-3,82; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 69,11</t>
+          <t>-1,77; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>-3,67; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,97</t>
+          <t>-2,56; 1,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,19</t>
+          <t>0,32; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,75</t>
+          <t>0,39; 4,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 56,08</t>
+          <t>-1,48; 5,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 7,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 0,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 0,75</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 2,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 2,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 3,3</t>
         </is>
       </c>
     </row>
@@ -964,37 +1192,67 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1489,21%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-50,84%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-19,67%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-67,19%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2186,57%</t>
+          <t>73,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-68,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-11,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>142,75%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>268,72%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-84,34; 563,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,7 +1352,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1074,37 +1362,67 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>49,17</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>0,28</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>28,16</t>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,06</t>
+          <t>0,28; 3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>-1,0; 4,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>-1,47; 3,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,15; 82,34</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,66</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>1,18; 6,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 47,17</t>
+          <t>-4,79; 0,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 1,36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 3,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 1,75</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 1,76</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1533,62 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>90,65%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-50,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-44,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1616,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,96; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1263,7 +1641,37 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 120,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 206,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-73,75; 169,4</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-71,26; 176,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>0,08</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,93</t>
+          <t>-3,47; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,03</t>
+          <t>-4,29; -0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 22,12</t>
+          <t>-2,28; 3,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,19</t>
+          <t>-2,64; 3,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,91</t>
+          <t>-2,41; 3,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 18,33</t>
+          <t>-2,68; 0,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,6</t>
+          <t>-2,23; 1,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,46</t>
+          <t>0,07; 6,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,62</t>
+          <t>-3,99; 3,52</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 6,27</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 0,67</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 0,55</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 4,06</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 2,43</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 3,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-42,24%</t>
+          <t>-44,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-73,93%</t>
+          <t>-74,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>377,16%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-30,99%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>449,96%</t>
+          <t>-31,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-37,24%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,37%</t>
+          <t>163,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>418,13%</t>
+          <t>-0,72%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>157,34%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-38,83%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-41,32%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>83,61%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>74,45%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-90,81; 141,52</t>
+          <t>-90,8; 125,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,85</t>
+          <t>-100,0; 70,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,78; 1983,89</t>
+          <t>-67,71; 353,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,45; 234,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-76,58; 337,45</t>
+          <t>-67,18; 411,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,88; 198,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,73; 71,29</t>
+          <t>-77,09; 259,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,18; 59,98</t>
+          <t>-18,35; 982,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>83,63; 1224,5</t>
+          <t>-64,52; 141,4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-11,72; 1271,06</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-77,51; 72,91</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-77,9; 54,07</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,66; 326,4</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-48,33; 87,84</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-20,46; 323,97</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>6,08</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,53</t>
+          <t>-4,24; 1,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,73</t>
+          <t>-3,65; 2,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,51; 20,66</t>
+          <t>0,22; 8,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,98</t>
+          <t>-4,1; 6,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,03</t>
+          <t>-1,4; 9,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,25; 26,4</t>
+          <t>-2,46; 3,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,58</t>
+          <t>-3,19; 2,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,79</t>
+          <t>-2,12; 4,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 19,78</t>
+          <t>1,6; 10,98</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 8,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 1,84</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 1,75</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 5,73</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 7,39</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-0,0; 7,39</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-30,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>377,27%</t>
+          <t>124,94%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>771,7%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-9,45%</t>
+          <t>-8,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>530,61%</t>
+          <t>199,74%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-10,15%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-8,09%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>95,97%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>74,08%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>69,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 130,02</t>
+          <t>-81,67; 137,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,18; 205,16</t>
+          <t>-68,81; 196,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>62,55; 1369,45</t>
+          <t>-12,29; 506,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,69; 492,58</t>
+          <t>-43,23; 139,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-82,77; 496,96</t>
+          <t>-26,11; 289,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>178,4; 3846,11</t>
+          <t>-78,27; 457,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-64,6; 104,68</t>
+          <t>-88,95; 249,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 134,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>190,34; 1194,58</t>
+          <t>18,38; 991,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-21,13; 252,52</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-62,48; 127,81</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-59,33; 114,18</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 352,35</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 199,08</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 209,06</t>
         </is>
       </c>
     </row>
@@ -1712,7 +2360,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1722,37 +2370,67 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 6,86</t>
+          <t>-8,71; 5,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 1,59</t>
+          <t>-11,04; 1,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 7,13</t>
+          <t>-9,35; 6,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,47</t>
+          <t>-5,37; 6,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 5,96</t>
+          <t>-1,27; 9,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 12,05</t>
+          <t>-2,91; 6,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,37</t>
+          <t>-3,64; 9,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,63</t>
+          <t>-4,25; 7,47</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 7,01</t>
+          <t>-7,58; 4,86</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 7,33</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 4,75</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 4,68</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 4,98</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 4,64</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 7,08</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-49,85%</t>
+          <t>-47,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>124,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>-5,39%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>43,6%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-7,75%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>69,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 218,2</t>
+          <t>-78,98; 200,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-92,75; 66,72</t>
+          <t>-91,0; 90,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-87,24; 242,5</t>
+          <t>-79,02; 193,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 132,62</t>
+          <t>-55,13; 230,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 150,79</t>
+          <t>-39,61; 620,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 273,79</t>
+          <t>-34,89; 155,27</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 99,55</t>
+          <t>-46,32; 240,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 67,45</t>
+          <t>-53,31; 175,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,52; 159,21</t>
+          <t>-65,51; 106,69</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-54,53; 296,78</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-39,65; 112,68</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-55,34; 111,83</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-50,35; 107,66</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-44,59; 98,9</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 267,83</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,89</t>
+          <t>-1,86; 0,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,0</t>
+          <t>-2,44; 0,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,78; 13,08</t>
+          <t>-0,67; 2,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,57</t>
+          <t>-1,03; 2,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,41</t>
+          <t>0,15; 3,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,44; 16,39</t>
+          <t>-0,71; 1,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,93</t>
+          <t>-0,69; 1,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,55</t>
+          <t>0,16; 3,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,49</t>
+          <t>-1,17; 2,51</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 3,42</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 0,84</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,73</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,32</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 1,89</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,72</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-46,68%</t>
+          <t>-46,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>426,04%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>562,9%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>493,25%</t>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>64,51%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>66,87%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>68,92%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,84; 65,33</t>
+          <t>-60,75; 61,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 5,33</t>
+          <t>-76,29; 10,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>147,91; 857,96</t>
+          <t>-26,89; 156,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 120,11</t>
+          <t>-26,16; 97,26</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 103,59</t>
+          <t>-0,85; 180,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>268,61; 1088,76</t>
+          <t>-28,6; 112,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 64,72</t>
+          <t>-31,02; 162,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 36,53</t>
+          <t>4,33; 247,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>279,01; 803,7</t>
+          <t>-25,32; 89,32</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 187,95</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-36,42; 56,06</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-45,97; 45,73</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 149,67</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 70,41</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 142,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
